--- a/Dify、Coze、FastGPT对比.xlsx
+++ b/Dify、Coze、FastGPT对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codeItems\myselfs\AI企业级大模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA58560-E42D-495F-BA81-41DA885A57BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67314C-9D55-499F-9C5E-C4BD6B8F40D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6454" yWindow="1505" windowWidth="16704" windowHeight="10958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25252" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Dify</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,26 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dify的开源社区活跃，提供了丰富的资源和支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以根据自己需求进行高度定制，
-并且可以在自己的服务器上进行部署，
-从而更好的控制数据安全和隐私。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过One API支持常见的大模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作便捷
-更加容易上手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,18 +106,6 @@
   </si>
   <si>
     <t>不开源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节跳动旗下的产品，Coze提供了丰富的插件系统和易用性
-相比Dify，定制性有限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FastGPT是一个开源的平台，
-提供开箱即用的数据处理、模型调用等能力。
-同时可以通过Flow可视化进行工作流编排，
-从而实现复杂问答场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +125,45 @@
       </rPr>
       <t>本地模型</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作便捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作便捷
+更加容易上手
+可以通过零代码和可视化方式快速构建 AI 应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">字节跳动旗下的产品，Coze提供了丰富的插件系统和易用性
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比Dify，定制性有限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以根据自己需求进行高度定制，
+并且可以在自己的服务器上进行部署，
+从而更好的控制数据安全和隐私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastGPT是一个开源的平台，
+提供开箱即用的数据处理、
+模型调用等能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过Flow可视化进行工作流编排，从而实现复杂问答场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dify的开源社区活跃，提供了丰富的资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,16 +236,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,119 +533,125 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
